--- a/data/trans_orig/P37-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P37-Provincia-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>40216</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>28804</v>
+        <v>30152</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>51624</v>
+        <v>52426</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1478005479656849</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1058588661064865</v>
+        <v>0.1108126186137444</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1897278327943466</v>
+        <v>0.1926731398802955</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>30</v>
@@ -765,19 +765,19 @@
         <v>31602</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>21201</v>
+        <v>21125</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>42804</v>
+        <v>42623</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1211552947011146</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.08127972890953605</v>
+        <v>0.08098921838650204</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1641007661817572</v>
+        <v>0.1634066259896678</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>72</v>
@@ -786,19 +786,19 @@
         <v>71818</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>58021</v>
+        <v>58785</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>90329</v>
+        <v>89023</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1347593430560096</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1088709450022739</v>
+        <v>0.1103048644719972</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1694931867738949</v>
+        <v>0.1670431986817635</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>231880</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>220472</v>
+        <v>219670</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>243292</v>
+        <v>241944</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8521994520343151</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8102721672056534</v>
+        <v>0.8073268601197043</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8941411338935135</v>
+        <v>0.8891873813862556</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>215</v>
@@ -836,19 +836,19 @@
         <v>229236</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>218034</v>
+        <v>218215</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>239637</v>
+        <v>239713</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8788447052988854</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8358992338182428</v>
+        <v>0.8365933740103321</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9187202710904638</v>
+        <v>0.9190107816134979</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>443</v>
@@ -857,19 +857,19 @@
         <v>461116</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>442605</v>
+        <v>443911</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>474913</v>
+        <v>474149</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8652406569439904</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8305068132261056</v>
+        <v>0.8329568013182365</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8911290549977261</v>
+        <v>0.8896951355280027</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>50908</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>39801</v>
+        <v>37723</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>66709</v>
+        <v>65798</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1032464557375021</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.08072049323268894</v>
+        <v>0.0765062490357406</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1352914208680991</v>
+        <v>0.1334444514186988</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>61</v>
@@ -982,19 +982,19 @@
         <v>62316</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>48032</v>
+        <v>48597</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>78046</v>
+        <v>79753</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.123896290377836</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.09549774713161091</v>
+        <v>0.09661980000072561</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1551705493883559</v>
+        <v>0.1585640455441365</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>109</v>
@@ -1003,19 +1003,19 @@
         <v>113224</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>94397</v>
+        <v>92013</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>135808</v>
+        <v>133771</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1136739253401047</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.094771762228181</v>
+        <v>0.09237850662611198</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.136347787756539</v>
+        <v>0.1343028983363253</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>442167</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>426366</v>
+        <v>427277</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>453274</v>
+        <v>455352</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.896753544262498</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8647085791319009</v>
+        <v>0.8665555485813012</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9192795067673111</v>
+        <v>0.9234937509642593</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>437</v>
@@ -1053,19 +1053,19 @@
         <v>440652</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>424922</v>
+        <v>423215</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>454936</v>
+        <v>454371</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.876103709622164</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8448294506116442</v>
+        <v>0.8414359544558633</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9045022528683891</v>
+        <v>0.9033801999992741</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>854</v>
@@ -1074,19 +1074,19 @@
         <v>882819</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>860235</v>
+        <v>862272</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>901646</v>
+        <v>904030</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8863260746598953</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.863652212243461</v>
+        <v>0.8656971016636746</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9052282377718189</v>
+        <v>0.9076214933738879</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>48069</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>37051</v>
+        <v>36716</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>61634</v>
+        <v>62474</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1507597363312242</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1162026064506994</v>
+        <v>0.1151535900981169</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1933021157937066</v>
+        <v>0.1959383869677997</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>61</v>
@@ -1199,19 +1199,19 @@
         <v>63452</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>49234</v>
+        <v>50805</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>79373</v>
+        <v>81063</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1891768261312444</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1467854105060672</v>
+        <v>0.1514714630639624</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2366445714116607</v>
+        <v>0.2416811905411091</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>110</v>
@@ -1220,19 +1220,19 @@
         <v>111521</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>94338</v>
+        <v>94901</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>131208</v>
+        <v>132586</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1704546498098186</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1441911308995325</v>
+        <v>0.1450517722962437</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2005452492601285</v>
+        <v>0.2026507348310991</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>270777</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>257212</v>
+        <v>256372</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>281795</v>
+        <v>282130</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8492402636687758</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8066978842062936</v>
+        <v>0.8040616130322003</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8837973935493012</v>
+        <v>0.884846409901883</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>274</v>
@@ -1270,19 +1270,19 @@
         <v>271960</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>256039</v>
+        <v>254349</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>286178</v>
+        <v>284607</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8108231738687556</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7633554285883395</v>
+        <v>0.7583188094588911</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8532145894939328</v>
+        <v>0.848528536936038</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>535</v>
@@ -1291,19 +1291,19 @@
         <v>542737</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>523050</v>
+        <v>521672</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>559920</v>
+        <v>559357</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8295453501901814</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7994547507398715</v>
+        <v>0.7973492651689008</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8558088691004675</v>
+        <v>0.8549482277037562</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>43285</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>31769</v>
+        <v>32861</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>55436</v>
+        <v>57473</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1206823346587993</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.08857413574635914</v>
+        <v>0.09161751064410122</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1545587769964807</v>
+        <v>0.1602375722307407</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>63</v>
@@ -1416,19 +1416,19 @@
         <v>61621</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>49153</v>
+        <v>49172</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>77288</v>
+        <v>77430</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1658902542732166</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1323249665369955</v>
+        <v>0.1323768441080467</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2080684813340275</v>
+        <v>0.20845034250041</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>108</v>
@@ -1437,19 +1437,19 @@
         <v>104906</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>88191</v>
+        <v>88595</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>123798</v>
+        <v>124674</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1436820999541874</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.120788873036949</v>
+        <v>0.1213415918188035</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.169556990316832</v>
+        <v>0.1707567641319488</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>315386</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>303235</v>
+        <v>301198</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>326902</v>
+        <v>325810</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8793176653412007</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8454412230035193</v>
+        <v>0.8397624277692595</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9114258642536408</v>
+        <v>0.9083824893558993</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>321</v>
@@ -1487,19 +1487,19 @@
         <v>309835</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>294168</v>
+        <v>294026</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>322303</v>
+        <v>322284</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8341097457267834</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7919315186659726</v>
+        <v>0.7915496574995901</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8676750334630045</v>
+        <v>0.8676231558919533</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>638</v>
@@ -1508,19 +1508,19 @@
         <v>625221</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>606329</v>
+        <v>605453</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>641936</v>
+        <v>641532</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8563179000458127</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8304430096831678</v>
+        <v>0.8292432358680514</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8792111269630506</v>
+        <v>0.8786584081811966</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>31552</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>22151</v>
+        <v>22357</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>42840</v>
+        <v>42966</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1551921539023072</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1089522419454535</v>
+        <v>0.1099660236810772</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2107146516977982</v>
+        <v>0.2113350678745985</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>38</v>
@@ -1633,19 +1633,19 @@
         <v>41090</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>30295</v>
+        <v>29904</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>54552</v>
+        <v>53397</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1987400836722593</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1465263511585218</v>
+        <v>0.1446378868244884</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.263851100070204</v>
+        <v>0.258265694063655</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>70</v>
@@ -1654,19 +1654,19 @@
         <v>72642</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>58801</v>
+        <v>59006</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>88996</v>
+        <v>88437</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1771489764427111</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1433972422957536</v>
+        <v>0.1438971425455059</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2170327937688851</v>
+        <v>0.2156678280655795</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>171756</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>160468</v>
+        <v>160342</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>181157</v>
+        <v>180951</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8448078460976928</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7892853483022019</v>
+        <v>0.7886649321254012</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8910477580545465</v>
+        <v>0.8900339763189227</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>159</v>
@@ -1704,19 +1704,19 @@
         <v>165662</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>152200</v>
+        <v>153355</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>176457</v>
+        <v>176848</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8012599163277407</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7361488999297959</v>
+        <v>0.7417343059363449</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8534736488414781</v>
+        <v>0.8553621131755114</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>333</v>
@@ -1725,19 +1725,19 @@
         <v>337418</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>321064</v>
+        <v>321623</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>351259</v>
+        <v>351054</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8228510235572889</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7829672062311148</v>
+        <v>0.7843321719344207</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8566027577042461</v>
+        <v>0.8561028574544942</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>35450</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>25897</v>
+        <v>25485</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>46903</v>
+        <v>47020</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1309022850590939</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.09562790829512018</v>
+        <v>0.09410480816061034</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.173195610270512</v>
+        <v>0.1736277386634253</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>46</v>
@@ -1850,19 +1850,19 @@
         <v>48894</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>37399</v>
+        <v>36684</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>62570</v>
+        <v>63180</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1757871470909494</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1344598787033594</v>
+        <v>0.131887940862683</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.224954586038653</v>
+        <v>0.2271491097812033</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>82</v>
@@ -1871,19 +1871,19 @@
         <v>84344</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>68242</v>
+        <v>68520</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>101735</v>
+        <v>101250</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1536445043194629</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1243117644759487</v>
+        <v>0.1248185835975261</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1853252074853091</v>
+        <v>0.1844413424649797</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>235361</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>223908</v>
+        <v>223791</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>244914</v>
+        <v>245326</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.869097714940906</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.826804389729488</v>
+        <v>0.8263722613365745</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9043720917048799</v>
+        <v>0.9058951918393892</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>224</v>
@@ -1921,19 +1921,19 @@
         <v>229250</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>215574</v>
+        <v>214964</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>240745</v>
+        <v>241460</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8242128529090507</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7750454139613471</v>
+        <v>0.7728508902187964</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8655401212966406</v>
+        <v>0.8681120591373169</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>454</v>
@@ -1942,19 +1942,19 @@
         <v>464611</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>447220</v>
+        <v>447705</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>480713</v>
+        <v>480435</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.846355495680537</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8146747925146908</v>
+        <v>0.8155586575350202</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8756882355240513</v>
+        <v>0.8751814164024738</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>92522</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>76241</v>
+        <v>74757</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>110701</v>
+        <v>111137</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1506436985819645</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1241349674834899</v>
+        <v>0.1217183562795609</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1802425957576529</v>
+        <v>0.1809525132279692</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>105</v>
@@ -2067,19 +2067,19 @@
         <v>109667</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>91349</v>
+        <v>90114</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>130806</v>
+        <v>129303</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1718335954325057</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1431313170212005</v>
+        <v>0.1411960104306649</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2049552476344546</v>
+        <v>0.2025998663319559</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>198</v>
@@ -2088,19 +2088,19 @@
         <v>202189</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>177688</v>
+        <v>176674</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>227044</v>
+        <v>231071</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1614420395779049</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1418786555223292</v>
+        <v>0.1410690286988406</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1812877880803719</v>
+        <v>0.1845030268689875</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>521655</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>503476</v>
+        <v>503040</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>537936</v>
+        <v>539420</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.8493563014180355</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8197574042423469</v>
+        <v>0.8190474867720307</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8758650325165099</v>
+        <v>0.8782816437204389</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>516</v>
@@ -2138,19 +2138,19 @@
         <v>528552</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>507413</v>
+        <v>508916</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>546870</v>
+        <v>548105</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.8281664045674942</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.7950447523655455</v>
+        <v>0.7974001336680442</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8568686829787995</v>
+        <v>0.8588039895693351</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1020</v>
@@ -2159,19 +2159,19 @@
         <v>1050207</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1025352</v>
+        <v>1021325</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1074708</v>
+        <v>1075722</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.8385579604220951</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8187122119196282</v>
+        <v>0.8154969731310125</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8581213444776709</v>
+        <v>0.8589309713011595</v>
       </c>
     </row>
     <row r="24">
@@ -2263,19 +2263,19 @@
         <v>112484</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>94611</v>
+        <v>95113</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>132359</v>
+        <v>135146</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1512295890294741</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1271999206282919</v>
+        <v>0.1278754988696605</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1779509267858424</v>
+        <v>0.1816981128718565</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>106</v>
@@ -2284,19 +2284,19 @@
         <v>116700</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>97880</v>
+        <v>97724</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>138632</v>
+        <v>137693</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1489447569396047</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1249247020669708</v>
+        <v>0.124725293723042</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1769372331088082</v>
+        <v>0.1757383746078397</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>220</v>
@@ -2305,19 +2305,19 @@
         <v>229184</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>203991</v>
+        <v>203018</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>260264</v>
+        <v>259211</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1500574656786175</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1335623208000994</v>
+        <v>0.1329256399268905</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1704072418033536</v>
+        <v>0.1697178543221969</v>
       </c>
     </row>
     <row r="26">
@@ -2334,19 +2334,19 @@
         <v>631311</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>611436</v>
+        <v>608649</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>649184</v>
+        <v>648682</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8487704109705259</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8220490732141574</v>
+        <v>0.8183018871281436</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8728000793717079</v>
+        <v>0.8721245011303395</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>639</v>
@@ -2355,19 +2355,19 @@
         <v>666811</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>644879</v>
+        <v>645818</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>685631</v>
+        <v>685787</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8510552430603954</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8230627668911917</v>
+        <v>0.8242616253921603</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8750752979330292</v>
+        <v>0.8752747062769579</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1261</v>
@@ -2376,19 +2376,19 @@
         <v>1298122</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1267042</v>
+        <v>1268095</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1323315</v>
+        <v>1324288</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8499425343213824</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8295927581966465</v>
+        <v>0.8302821456778031</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8664376791999007</v>
+        <v>0.8670743600731096</v>
       </c>
     </row>
     <row r="27">
@@ -2480,19 +2480,19 @@
         <v>454486</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>419419</v>
+        <v>415391</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>493056</v>
+        <v>492356</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1387836733916209</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1280754041279349</v>
+        <v>0.1268455631154454</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.150561539572192</v>
+        <v>0.1503478263911714</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>510</v>
@@ -2501,19 +2501,19 @@
         <v>535342</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>495536</v>
+        <v>493950</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>582208</v>
+        <v>578391</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1585118970466272</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1467255896697603</v>
+        <v>0.146255739206859</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1723884966795035</v>
+        <v>0.1712582790597645</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>969</v>
@@ -2522,19 +2522,19 @@
         <v>989828</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>930100</v>
+        <v>932832</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>1050565</v>
+        <v>1047871</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1487998107173084</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1398209032903083</v>
+        <v>0.1402316234895329</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1579303435299776</v>
+        <v>0.1575253929321466</v>
       </c>
     </row>
     <row r="29">
@@ -2551,19 +2551,19 @@
         <v>2820293</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2781723</v>
+        <v>2782423</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>2855360</v>
+        <v>2859388</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.8612163266083791</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.8494384604278079</v>
+        <v>0.8496521736088284</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.8719245958720651</v>
+        <v>0.8731544368845545</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>2785</v>
@@ -2572,19 +2572,19 @@
         <v>2841958</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>2795092</v>
+        <v>2798909</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>2881764</v>
+        <v>2883350</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.8414881029533728</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.8276115033204966</v>
+        <v>0.8287417209402355</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.8532744103302398</v>
+        <v>0.8537442607931413</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>5538</v>
@@ -2593,19 +2593,19 @@
         <v>5662251</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>5601514</v>
+        <v>5604208</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>5721979</v>
+        <v>5719247</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.8512001892826916</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.8420696564700225</v>
+        <v>0.8424746070678535</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.8601790967096917</v>
+        <v>0.8597683765104674</v>
       </c>
     </row>
     <row r="30">
@@ -2941,19 +2941,19 @@
         <v>49773</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>37476</v>
+        <v>38001</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>64335</v>
+        <v>63445</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1688714218360213</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1271496483434356</v>
+        <v>0.1289310972175645</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2182795119584394</v>
+        <v>0.2152588778913091</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>42</v>
@@ -2962,19 +2962,19 @@
         <v>47244</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>35368</v>
+        <v>35196</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>61666</v>
+        <v>61048</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1644711154708827</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1231275522811708</v>
+        <v>0.1225306668968469</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.214680979468915</v>
+        <v>0.2125283869412378</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>89</v>
@@ -2983,19 +2983,19 @@
         <v>97016</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>77129</v>
+        <v>80847</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>115912</v>
+        <v>118224</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1666995956217097</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1325271413898405</v>
+        <v>0.1389159078420501</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1991674136858257</v>
+        <v>0.2031404465104323</v>
       </c>
     </row>
     <row r="5">
@@ -3012,19 +3012,19 @@
         <v>244965</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>230403</v>
+        <v>231293</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>257262</v>
+        <v>256737</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8311285781639787</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7817204880415606</v>
+        <v>0.7847411221086908</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8728503516565643</v>
+        <v>0.8710689027824355</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>214</v>
@@ -3033,19 +3033,19 @@
         <v>240001</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>225579</v>
+        <v>226197</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>251877</v>
+        <v>252049</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8355288845291173</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7853190205310848</v>
+        <v>0.7874716130587621</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8768724477188291</v>
+        <v>0.877469333103153</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>449</v>
@@ -3054,19 +3054,19 @@
         <v>484967</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>466071</v>
+        <v>463759</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>504854</v>
+        <v>501136</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8333004043782903</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8008325863141743</v>
+        <v>0.7968595534895677</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8674728586101595</v>
+        <v>0.8610840921579499</v>
       </c>
     </row>
     <row r="6">
@@ -3158,19 +3158,19 @@
         <v>89649</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>72618</v>
+        <v>72001</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>109504</v>
+        <v>108337</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1773384332515894</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1436476659913759</v>
+        <v>0.142428143150161</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2166134791962293</v>
+        <v>0.2143055440335539</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>84</v>
@@ -3179,19 +3179,19 @@
         <v>90777</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>72950</v>
+        <v>74443</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>109403</v>
+        <v>110293</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1733164996743951</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1392793145312493</v>
+        <v>0.1421306976000596</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2088777847187697</v>
+        <v>0.210576451450274</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>162</v>
@@ -3200,19 +3200,19 @@
         <v>180426</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>155379</v>
+        <v>158145</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>205972</v>
+        <v>211060</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1752918346937123</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1509575958450511</v>
+        <v>0.1536442089906029</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2001099744735328</v>
+        <v>0.2050534583968711</v>
       </c>
     </row>
     <row r="8">
@@ -3229,19 +3229,19 @@
         <v>415878</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>396023</v>
+        <v>397190</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>432909</v>
+        <v>433526</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8226615667484106</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7833865208037707</v>
+        <v>0.7856944559664462</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8563523340086242</v>
+        <v>0.8575718568498393</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>396</v>
@@ -3250,19 +3250,19 @@
         <v>432988</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>414362</v>
+        <v>413472</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>450815</v>
+        <v>449322</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8266835003256049</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7911222152812302</v>
+        <v>0.7894235485497259</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8607206854687497</v>
+        <v>0.8578693023999403</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>790</v>
@@ -3271,19 +3271,19 @@
         <v>848866</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>823320</v>
+        <v>818232</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>873913</v>
+        <v>871147</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8247081653062877</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7998900255264675</v>
+        <v>0.7949465416031289</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8490424041549491</v>
+        <v>0.8463557910093971</v>
       </c>
     </row>
     <row r="9">
@@ -3375,19 +3375,19 @@
         <v>67084</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>52490</v>
+        <v>52086</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>81647</v>
+        <v>82354</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2082894409167161</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1629747567976918</v>
+        <v>0.1617213672781607</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2535057871481156</v>
+        <v>0.2557004611492663</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>59</v>
@@ -3396,19 +3396,19 @@
         <v>63677</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>50262</v>
+        <v>50309</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>79653</v>
+        <v>78264</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1873136080557577</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1478502478514037</v>
+        <v>0.1479898996214642</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2343083276749557</v>
+        <v>0.2302235258805927</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>121</v>
@@ -3417,19 +3417,19 @@
         <v>130761</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>111028</v>
+        <v>111054</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>153213</v>
+        <v>152837</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1975183076528528</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1677102045655637</v>
+        <v>0.1677496157199064</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2314322341779272</v>
+        <v>0.2308639368890962</v>
       </c>
     </row>
     <row r="11">
@@ -3446,19 +3446,19 @@
         <v>254988</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>240425</v>
+        <v>239718</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>269582</v>
+        <v>269986</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7917105590832839</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7464942128518848</v>
+        <v>0.7442995388507337</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8370252432023082</v>
+        <v>0.8382786327218396</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>257</v>
@@ -3467,19 +3467,19 @@
         <v>276272</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>260296</v>
+        <v>261685</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>289687</v>
+        <v>289640</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8126863919442423</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.765691672325044</v>
+        <v>0.7697764741194072</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8521497521485961</v>
+        <v>0.8520101003785358</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>512</v>
@@ -3488,19 +3488,19 @@
         <v>531260</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>508808</v>
+        <v>509184</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>550993</v>
+        <v>550967</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8024816923471472</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7685677658220739</v>
+        <v>0.7691360631109038</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8322897954344366</v>
+        <v>0.8322503842800932</v>
       </c>
     </row>
     <row r="12">
@@ -3592,19 +3592,19 @@
         <v>66518</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>51427</v>
+        <v>52622</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>83558</v>
+        <v>84299</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1778641223618394</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1375119152105962</v>
+        <v>0.1407069179374092</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2234266201746543</v>
+        <v>0.2254098249030122</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>88</v>
@@ -3613,19 +3613,19 @@
         <v>91926</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>74505</v>
+        <v>76789</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>108856</v>
+        <v>109901</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2363422414875967</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1915524091828809</v>
+        <v>0.1974266190375192</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2798717240945474</v>
+        <v>0.2825576969252057</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>149</v>
@@ -3634,19 +3634,19 @@
         <v>158444</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>135978</v>
+        <v>135918</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>181556</v>
+        <v>181983</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2076768573830446</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1782303756078659</v>
+        <v>0.1781523409478107</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2379708891408056</v>
+        <v>0.2385307784415578</v>
       </c>
     </row>
     <row r="14">
@@ -3663,19 +3663,19 @@
         <v>307464</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>290424</v>
+        <v>289683</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>322555</v>
+        <v>321360</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8221358776381605</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7765733798253457</v>
+        <v>0.7745901750969878</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8624880847894039</v>
+        <v>0.8592930820625907</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>283</v>
@@ -3684,19 +3684,19 @@
         <v>297025</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>280095</v>
+        <v>279050</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>314446</v>
+        <v>312162</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7636577585124033</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7201282759054526</v>
+        <v>0.7174423030747945</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8084475908171191</v>
+        <v>0.8025733809624811</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>566</v>
@@ -3705,19 +3705,19 @@
         <v>604489</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>581377</v>
+        <v>580950</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>626955</v>
+        <v>627015</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7923231426169554</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7620291108591944</v>
+        <v>0.7614692215584417</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8217696243921341</v>
+        <v>0.8218476590521892</v>
       </c>
     </row>
     <row r="15">
@@ -3809,19 +3809,19 @@
         <v>35500</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>24967</v>
+        <v>25513</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>49351</v>
+        <v>48629</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1677648553660705</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.117989954815623</v>
+        <v>0.1205691936748622</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2332226934868188</v>
+        <v>0.2298121627863737</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>41</v>
@@ -3830,19 +3830,19 @@
         <v>42387</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>31460</v>
+        <v>31334</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>55883</v>
+        <v>55769</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1930280931659786</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1432645293960391</v>
+        <v>0.142691071626155</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2544867316959723</v>
+        <v>0.2539683735458522</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>72</v>
@@ -3851,19 +3851,19 @@
         <v>77887</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>62117</v>
+        <v>62235</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>94408</v>
+        <v>95648</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1806304671875773</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1440592251741263</v>
+        <v>0.1443312247409657</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2189444722110911</v>
+        <v>0.221821382385207</v>
       </c>
     </row>
     <row r="17">
@@ -3880,19 +3880,19 @@
         <v>176103</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>162252</v>
+        <v>162974</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>186636</v>
+        <v>186090</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8322351446339296</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7667773065131812</v>
+        <v>0.7701878372136263</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8820100451843769</v>
+        <v>0.8794308063251377</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>171</v>
@@ -3901,19 +3901,19 @@
         <v>177204</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>163708</v>
+        <v>163822</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>188131</v>
+        <v>188257</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8069719068340214</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7455132683040279</v>
+        <v>0.7460316264541477</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8567354706039613</v>
+        <v>0.8573089283738449</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>335</v>
@@ -3922,19 +3922,19 @@
         <v>353307</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>336786</v>
+        <v>335546</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>369077</v>
+        <v>368959</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8193695328124228</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.781055527788909</v>
+        <v>0.7781786176147929</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8559407748258737</v>
+        <v>0.8556687752590343</v>
       </c>
     </row>
     <row r="18">
@@ -4026,19 +4026,19 @@
         <v>57913</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>45074</v>
+        <v>46291</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>71513</v>
+        <v>73538</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2113756759751498</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1645149171087122</v>
+        <v>0.1689568532006419</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2610136333007098</v>
+        <v>0.2684040959501461</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>63</v>
@@ -4047,19 +4047,19 @@
         <v>64315</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>49570</v>
+        <v>50354</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>79092</v>
+        <v>78460</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2296726665303535</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1770162848127264</v>
+        <v>0.179815729039999</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2824418363204181</v>
+        <v>0.2801826436454555</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>118</v>
@@ -4068,19 +4068,19 @@
         <v>122228</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>103663</v>
+        <v>102795</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>141275</v>
+        <v>140771</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2206240758506829</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1871135851803461</v>
+        <v>0.1855468968262036</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2550039980211308</v>
+        <v>0.2540935373884403</v>
       </c>
     </row>
     <row r="20">
@@ -4097,19 +4097,19 @@
         <v>216068</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>202468</v>
+        <v>200443</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>228907</v>
+        <v>227690</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7886243240248502</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7389863666992903</v>
+        <v>0.7315959040498545</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8354850828912879</v>
+        <v>0.8310431467993585</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>206</v>
@@ -4118,19 +4118,19 @@
         <v>215716</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>200939</v>
+        <v>201571</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>230461</v>
+        <v>229677</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7703273334696465</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7175581636795819</v>
+        <v>0.7198173563545444</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8229837151872732</v>
+        <v>0.8201842709600008</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>412</v>
@@ -4139,19 +4139,19 @@
         <v>431784</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>412737</v>
+        <v>413241</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>450349</v>
+        <v>451217</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7793759241493171</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7449960019788692</v>
+        <v>0.7459064626115597</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8128864148196538</v>
+        <v>0.8144531031737965</v>
       </c>
     </row>
     <row r="21">
@@ -4243,19 +4243,19 @@
         <v>113894</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>94481</v>
+        <v>95678</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>136028</v>
+        <v>136598</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1718400720982788</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1425503840042435</v>
+        <v>0.144356631810261</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2052364449607477</v>
+        <v>0.2060961868499591</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>104</v>
@@ -4264,19 +4264,19 @@
         <v>116140</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>97099</v>
+        <v>95895</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>136539</v>
+        <v>136979</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.167384295669057</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1399420066455308</v>
+        <v>0.138206945888476</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1967830483633877</v>
+        <v>0.1974180234360976</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>207</v>
@@ -4285,19 +4285,19 @@
         <v>230034</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>201117</v>
+        <v>202452</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>259637</v>
+        <v>260359</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1695611687704524</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.148246616058089</v>
+        <v>0.149230234516802</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1913822480808319</v>
+        <v>0.1919147841547857</v>
       </c>
     </row>
     <row r="23">
@@ -4314,19 +4314,19 @@
         <v>548894</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>526760</v>
+        <v>526190</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>568307</v>
+        <v>567110</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.8281599279017212</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.7947635550392523</v>
+        <v>0.7939038131500411</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8574496159957563</v>
+        <v>0.8556433681897392</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>532</v>
@@ -4335,19 +4335,19 @@
         <v>577713</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>557314</v>
+        <v>556874</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>596754</v>
+        <v>597958</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.832615704330943</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8032169516366123</v>
+        <v>0.8025819765639023</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8600579933544696</v>
+        <v>0.861793054111524</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1047</v>
@@ -4356,19 +4356,19 @@
         <v>1126607</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1097004</v>
+        <v>1096282</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1155524</v>
+        <v>1154189</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.8304388312295476</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8086177519191683</v>
+        <v>0.8080852158452143</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8517533839419114</v>
+        <v>0.850769765483198</v>
       </c>
     </row>
     <row r="24">
@@ -4460,19 +4460,19 @@
         <v>123840</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>104306</v>
+        <v>103971</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>146642</v>
+        <v>144999</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1593698951897869</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1342315183802987</v>
+        <v>0.133799607224653</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1887137494367334</v>
+        <v>0.1865990382659647</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>121</v>
@@ -4481,19 +4481,19 @@
         <v>132885</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>111955</v>
+        <v>113328</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>156149</v>
+        <v>156691</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1612969142798583</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1358914279652041</v>
+        <v>0.1375591203157453</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1895344682607704</v>
+        <v>0.1901929543486318</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>232</v>
@@ -4502,19 +4502,19 @@
         <v>256725</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>227279</v>
+        <v>225127</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>291924</v>
+        <v>289150</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1603615651830338</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1419678605983361</v>
+        <v>0.1406241386591634</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1823482761406025</v>
+        <v>0.180615524670107</v>
       </c>
     </row>
     <row r="26">
@@ -4531,19 +4531,19 @@
         <v>653223</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>630421</v>
+        <v>632064</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>672757</v>
+        <v>673092</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8406301048102132</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8112862505632665</v>
+        <v>0.8134009617340352</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8657684816197012</v>
+        <v>0.8662003927753469</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>636</v>
@@ -4552,19 +4552,19 @@
         <v>690968</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>667704</v>
+        <v>667162</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>711898</v>
+        <v>710525</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8387030857201417</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8104655317392297</v>
+        <v>0.8098070456513683</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8641085720347961</v>
+        <v>0.8624408796842553</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1240</v>
@@ -4573,19 +4573,19 @@
         <v>1344191</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1308992</v>
+        <v>1311766</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1373637</v>
+        <v>1375789</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8396384348169662</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8176517238593976</v>
+        <v>0.819384475329893</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8580321394016639</v>
+        <v>0.8593758613408367</v>
       </c>
     </row>
     <row r="27">
@@ -4677,19 +4677,19 @@
         <v>604171</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>560612</v>
+        <v>554535</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>650732</v>
+        <v>656824</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1765675754991695</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1638376777489812</v>
+        <v>0.162061517111001</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1901750089915241</v>
+        <v>0.1919552390093179</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>602</v>
@@ -4698,19 +4698,19 @@
         <v>649351</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>600969</v>
+        <v>601153</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>695980</v>
+        <v>698813</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1825435882286722</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1689427255807379</v>
+        <v>0.168994430499523</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1956517450342284</v>
+        <v>0.1964480818317585</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>1150</v>
@@ -4719,19 +4719,19 @@
         <v>1253522</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1189191</v>
+        <v>1190942</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>1324854</v>
+        <v>1319027</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1796135880867536</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1703957927077572</v>
+        <v>0.1706466298258435</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1898345460167601</v>
+        <v>0.1889995870615094</v>
       </c>
     </row>
     <row r="29">
@@ -4748,19 +4748,19 @@
         <v>2817584</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2771023</v>
+        <v>2764931</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>2861143</v>
+        <v>2867220</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.8234324245008305</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.809824991008476</v>
+        <v>0.8080447609906821</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.8361623222510188</v>
+        <v>0.837938482888999</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>2695</v>
@@ -4769,19 +4769,19 @@
         <v>2907887</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>2861258</v>
+        <v>2858425</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>2956269</v>
+        <v>2956085</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.8174564117713278</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.8043482549657717</v>
+        <v>0.8035519181682416</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.8310572744192621</v>
+        <v>0.8310055695004771</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>5351</v>
@@ -4790,19 +4790,19 @@
         <v>5725471</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>5654139</v>
+        <v>5659966</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>5789802</v>
+        <v>5788051</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.8203864119132463</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.8101654539832395</v>
+        <v>0.8110004129384906</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.8296042072922425</v>
+        <v>0.8293533701741564</v>
       </c>
     </row>
     <row r="30">
@@ -5138,19 +5138,19 @@
         <v>43363</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>31020</v>
+        <v>32490</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>55600</v>
+        <v>57319</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1476135617793436</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1055947982050098</v>
+        <v>0.1106002296027235</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1892683726065609</v>
+        <v>0.1951217013572406</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>42</v>
@@ -5159,19 +5159,19 @@
         <v>46476</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>34577</v>
+        <v>34892</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>60781</v>
+        <v>60666</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1609812771219065</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1197655845160793</v>
+        <v>0.120858429796329</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2105297995733932</v>
+        <v>0.2101332403759083</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>85</v>
@@ -5180,19 +5180,19 @@
         <v>89839</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>73152</v>
+        <v>74275</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>108100</v>
+        <v>108195</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1542393781664051</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1255909398846385</v>
+        <v>0.1275185971253139</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1855904308356494</v>
+        <v>0.1857540562129224</v>
       </c>
     </row>
     <row r="5">
@@ -5209,19 +5209,19 @@
         <v>250398</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>238161</v>
+        <v>236442</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>262741</v>
+        <v>261271</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8523864382206564</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8107316273934392</v>
+        <v>0.8048782986427599</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8944052017949903</v>
+        <v>0.8893997703972768</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>235</v>
@@ -5230,19 +5230,19 @@
         <v>242227</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>227922</v>
+        <v>228037</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>254126</v>
+        <v>253811</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8390187228780934</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7894702004266069</v>
+        <v>0.7898667596240917</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8802344154839208</v>
+        <v>0.8791415702036712</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>458</v>
@@ -5251,19 +5251,19 @@
         <v>492625</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>474364</v>
+        <v>474269</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>509312</v>
+        <v>508189</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8457606218335948</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8144095691643506</v>
+        <v>0.8142459437870776</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8744090601153616</v>
+        <v>0.8724814028746861</v>
       </c>
     </row>
     <row r="6">
@@ -5355,19 +5355,19 @@
         <v>79730</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>63086</v>
+        <v>64433</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>97430</v>
+        <v>97269</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1586436976926012</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1255252265995686</v>
+        <v>0.128205203440871</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1938619899794271</v>
+        <v>0.1935420050290263</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>58</v>
@@ -5376,19 +5376,19 @@
         <v>69571</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>53875</v>
+        <v>55127</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>85631</v>
+        <v>88201</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1330022663843385</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1029943071386294</v>
+        <v>0.1053881004018962</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1637035483534584</v>
+        <v>0.1686179684014379</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>135</v>
@@ -5397,19 +5397,19 @@
         <v>149302</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>127314</v>
+        <v>127938</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>173560</v>
+        <v>174832</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1455666245849071</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1241289399523642</v>
+        <v>0.1247371998631298</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1692183563918253</v>
+        <v>0.1704581723844376</v>
       </c>
     </row>
     <row r="8">
@@ -5426,19 +5426,19 @@
         <v>422845</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>405145</v>
+        <v>405306</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>439489</v>
+        <v>438142</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8413563023073988</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8061380100205726</v>
+        <v>0.8064579949709735</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8744747734004314</v>
+        <v>0.8717947965591291</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>426</v>
@@ -5447,19 +5447,19 @@
         <v>453513</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>437453</v>
+        <v>434883</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>469209</v>
+        <v>467957</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8669977336156616</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8362964516465415</v>
+        <v>0.8313820315985619</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8970056928613708</v>
+        <v>0.8946118995981036</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>824</v>
@@ -5468,19 +5468,19 @@
         <v>876357</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>852099</v>
+        <v>850827</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>898345</v>
+        <v>897721</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8544333754150929</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8307816436081747</v>
+        <v>0.8295418276155623</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8758710600476358</v>
+        <v>0.8752628001368702</v>
       </c>
     </row>
     <row r="9">
@@ -5572,19 +5572,19 @@
         <v>59743</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>47454</v>
+        <v>48003</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>74869</v>
+        <v>74510</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1875366421096217</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1489623414020765</v>
+        <v>0.1506857551839298</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2350202200242496</v>
+        <v>0.2338927306688705</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>65</v>
@@ -5593,19 +5593,19 @@
         <v>72567</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>57808</v>
+        <v>57700</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>89824</v>
+        <v>88312</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2157750968733855</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1718908200977355</v>
+        <v>0.171568841934519</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2670866132727526</v>
+        <v>0.2625905865669081</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>130</v>
@@ -5614,19 +5614,19 @@
         <v>132310</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>112287</v>
+        <v>111806</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>155439</v>
+        <v>152051</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2020384341266147</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1714634411259038</v>
+        <v>0.1707294691311795</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2373573428280621</v>
+        <v>0.2321841002818945</v>
       </c>
     </row>
     <row r="11">
@@ -5643,19 +5643,19 @@
         <v>258822</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>243696</v>
+        <v>244055</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>271111</v>
+        <v>270562</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8124633578903783</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7649797799757505</v>
+        <v>0.7661072693311295</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8510376585979236</v>
+        <v>0.8493142448160702</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>267</v>
@@ -5664,19 +5664,19 @@
         <v>263742</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>246485</v>
+        <v>247997</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>278501</v>
+        <v>278609</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7842249031266145</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7329133867272477</v>
+        <v>0.737409413433092</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8281091799022648</v>
+        <v>0.8284311580654811</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>537</v>
@@ -5685,19 +5685,19 @@
         <v>522564</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>499435</v>
+        <v>502823</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>542587</v>
+        <v>543068</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7979615658733853</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7626426571719379</v>
+        <v>0.7678158997181053</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8285365588740962</v>
+        <v>0.8292705308688204</v>
       </c>
     </row>
     <row r="12">
@@ -5789,19 +5789,19 @@
         <v>71425</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>56609</v>
+        <v>58585</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>87120</v>
+        <v>87825</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.19305886150233</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1530109779401701</v>
+        <v>0.1583523727851654</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2354830239376483</v>
+        <v>0.2373890854461711</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>69</v>
@@ -5810,19 +5810,19 @@
         <v>82109</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>63666</v>
+        <v>65865</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>98530</v>
+        <v>100065</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2120136929974969</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1643914971498525</v>
+        <v>0.1700702119880286</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2544124433830813</v>
+        <v>0.2583781756639222</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>142</v>
@@ -5831,19 +5831,19 @@
         <v>153534</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>130273</v>
+        <v>131979</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>178307</v>
+        <v>174711</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2027530353074831</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1720346061165438</v>
+        <v>0.1742874711617081</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.23546720798574</v>
+        <v>0.230718942503748</v>
       </c>
     </row>
     <row r="14">
@@ -5860,19 +5860,19 @@
         <v>298539</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>282844</v>
+        <v>282139</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>313355</v>
+        <v>311379</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.80694113849767</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7645169760623518</v>
+        <v>0.7626109145538291</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8469890220598302</v>
+        <v>0.8416476272148349</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>289</v>
@@ -5881,19 +5881,19 @@
         <v>305174</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>288753</v>
+        <v>287218</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>323617</v>
+        <v>321418</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7879863070025031</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7455875566169188</v>
+        <v>0.7416218243360775</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8356085028501478</v>
+        <v>0.8299297880119711</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>570</v>
@@ -5902,19 +5902,19 @@
         <v>603713</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>578940</v>
+        <v>582536</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>626974</v>
+        <v>625268</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7972469646925169</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7645327920142601</v>
+        <v>0.7692810574962521</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8279653938834562</v>
+        <v>0.8257125288382919</v>
       </c>
     </row>
     <row r="15">
@@ -6006,19 +6006,19 @@
         <v>27855</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>19049</v>
+        <v>19286</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>37911</v>
+        <v>38407</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.131876620662729</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.09018509280950687</v>
+        <v>0.09130677752477546</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1794853703638133</v>
+        <v>0.181834160436953</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>28</v>
@@ -6027,19 +6027,19 @@
         <v>30232</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>20094</v>
+        <v>20719</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>41560</v>
+        <v>42729</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1383054901225448</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.09192798191141202</v>
+        <v>0.09478497128013806</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1901282026047887</v>
+        <v>0.1954804264860722</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>58</v>
@@ -6048,19 +6048,19 @@
         <v>58087</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>45367</v>
+        <v>45247</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>74280</v>
+        <v>73156</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1351461440180544</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.105551536272265</v>
+        <v>0.1052725295806239</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1728211480415134</v>
+        <v>0.1702068253510766</v>
       </c>
     </row>
     <row r="17">
@@ -6077,19 +6077,19 @@
         <v>183366</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>173310</v>
+        <v>172814</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>192172</v>
+        <v>191935</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.868123379337271</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8205146296361873</v>
+        <v>0.8181658395630472</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9098149071904933</v>
+        <v>0.9086932224752247</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>195</v>
@@ -6098,19 +6098,19 @@
         <v>188355</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>177027</v>
+        <v>175858</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>198493</v>
+        <v>197868</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8616945098774552</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8098717973952113</v>
+        <v>0.8045195735139278</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.908072018088588</v>
+        <v>0.9052150287198616</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>377</v>
@@ -6119,19 +6119,19 @@
         <v>371721</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>355528</v>
+        <v>356652</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>384441</v>
+        <v>384561</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8648538559819455</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8271788519584866</v>
+        <v>0.8297931746489234</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.894448463727735</v>
+        <v>0.8947274704193761</v>
       </c>
     </row>
     <row r="18">
@@ -6223,19 +6223,19 @@
         <v>50688</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>40199</v>
+        <v>39732</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>64911</v>
+        <v>64526</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1926394607342438</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1527772853486878</v>
+        <v>0.1510024892866424</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2466933976941824</v>
+        <v>0.2452311393234573</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>57</v>
@@ -6244,19 +6244,19 @@
         <v>63852</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>51198</v>
+        <v>50373</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>79796</v>
+        <v>78880</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.233791437817216</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1874582555332462</v>
+        <v>0.1844396946021952</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2921695056404821</v>
+        <v>0.288815451886034</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>111</v>
@@ -6265,19 +6265,19 @@
         <v>114540</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>97088</v>
+        <v>96841</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>134061</v>
+        <v>133734</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2135988523606775</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1810547904930733</v>
+        <v>0.1805935195787045</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.250003516737956</v>
+        <v>0.2493925333770788</v>
       </c>
     </row>
     <row r="20">
@@ -6294,19 +6294,19 @@
         <v>212435</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>198212</v>
+        <v>198597</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>222924</v>
+        <v>223391</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8073605392657562</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7533066023058176</v>
+        <v>0.7547688606765421</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8472227146513122</v>
+        <v>0.8489975107133571</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>206</v>
@@ -6315,19 +6315,19 @@
         <v>209263</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>193319</v>
+        <v>194235</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>221917</v>
+        <v>222742</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.766208562182784</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7078304943595179</v>
+        <v>0.7111845481139661</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8125417444667538</v>
+        <v>0.8155603053978048</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>411</v>
@@ -6336,19 +6336,19 @@
         <v>421698</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>402177</v>
+        <v>402504</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>439150</v>
+        <v>439397</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7864011476393225</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.749996483262044</v>
+        <v>0.7506074666229213</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8189452095069267</v>
+        <v>0.8194064804212957</v>
       </c>
     </row>
     <row r="21">
@@ -6440,19 +6440,19 @@
         <v>108611</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>90072</v>
+        <v>90308</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>129977</v>
+        <v>128345</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1654255054735411</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1371883318844073</v>
+        <v>0.1375481032729721</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1979676866484447</v>
+        <v>0.1954810134593354</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>114</v>
@@ -6461,19 +6461,19 @@
         <v>133541</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>113035</v>
+        <v>113901</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>156928</v>
+        <v>159323</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1931754699042149</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1635121298166522</v>
+        <v>0.1647642463015167</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2270064641553986</v>
+        <v>0.2304703163154714</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>212</v>
@@ -6482,19 +6482,19 @@
         <v>242152</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>212105</v>
+        <v>212394</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>271095</v>
+        <v>272222</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1796580651011364</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1573648541153067</v>
+        <v>0.157579424345147</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2011311401710503</v>
+        <v>0.2019674826324162</v>
       </c>
     </row>
     <row r="23">
@@ -6511,19 +6511,19 @@
         <v>547947</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>526581</v>
+        <v>528213</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>566486</v>
+        <v>566250</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.8345744945264588</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8020323133515552</v>
+        <v>0.8045189865406646</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8628116681155926</v>
+        <v>0.8624518967270278</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>532</v>
@@ -6532,19 +6532,19 @@
         <v>557753</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>534366</v>
+        <v>531971</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>578259</v>
+        <v>577393</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.8068245300957851</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.7729935358446013</v>
+        <v>0.7695296836845286</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8364878701833477</v>
+        <v>0.8352357536984832</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1014</v>
@@ -6553,19 +6553,19 @@
         <v>1105700</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1076757</v>
+        <v>1075630</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1135747</v>
+        <v>1135458</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.8203419348988636</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.7988688598289496</v>
+        <v>0.7980325173675836</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8426351458846933</v>
+        <v>0.8424205756548527</v>
       </c>
     </row>
     <row r="24">
@@ -6657,19 +6657,19 @@
         <v>92932</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>76159</v>
+        <v>75842</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>111087</v>
+        <v>113546</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1193608981115138</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.0978177593810928</v>
+        <v>0.0974098872590947</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1426787972961132</v>
+        <v>0.1458371236392899</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>93</v>
@@ -6678,19 +6678,19 @@
         <v>114532</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>93717</v>
+        <v>93419</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>138586</v>
+        <v>139292</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1386304058669793</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1134353262189117</v>
+        <v>0.1130747524001884</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.16774519010223</v>
+        <v>0.1686005661974359</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>189</v>
@@ -6699,19 +6699,19 @@
         <v>207464</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>179065</v>
+        <v>177968</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>237046</v>
+        <v>235840</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1292813414604814</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1115841168531824</v>
+        <v>0.1109007027209146</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1477155128936403</v>
+        <v>0.146963487953282</v>
       </c>
     </row>
     <row r="26">
@@ -6728,19 +6728,19 @@
         <v>685651</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>667496</v>
+        <v>665037</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>702424</v>
+        <v>702741</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8806391018884863</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8573212027038869</v>
+        <v>0.8541628763607102</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9021822406189073</v>
+        <v>0.9025901127409053</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>662</v>
@@ -6749,19 +6749,19 @@
         <v>711635</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>687581</v>
+        <v>686875</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>732450</v>
+        <v>732748</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8613695941330207</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8322548098977697</v>
+        <v>0.8313994338025641</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8865646737810882</v>
+        <v>0.8869252475998111</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1316</v>
@@ -6770,19 +6770,19 @@
         <v>1397286</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1367704</v>
+        <v>1368910</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1425685</v>
+        <v>1426782</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8707186585395186</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8522844871063596</v>
+        <v>0.8530365120467178</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8884158831468175</v>
+        <v>0.8890992972790851</v>
       </c>
     </row>
     <row r="27">
@@ -6874,19 +6874,19 @@
         <v>534348</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>497624</v>
+        <v>495119</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>577917</v>
+        <v>576092</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1574226856167529</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.146603495658466</v>
+        <v>0.1458655455479583</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1702585967430945</v>
+        <v>0.1697210066435183</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>526</v>
@@ -6895,19 +6895,19 @@
         <v>612880</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>564008</v>
+        <v>568450</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>659789</v>
+        <v>664315</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1729081448371995</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1591200981543988</v>
+        <v>0.1603733286697046</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1861421914368506</v>
+        <v>0.1874192678264694</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>1062</v>
@@ -6916,19 +6916,19 @@
         <v>1147228</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1080622</v>
+        <v>1082044</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>1208440</v>
+        <v>1212543</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1653330058630114</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1557340551663196</v>
+        <v>0.1559390549684145</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1741546503490619</v>
+        <v>0.1747458924051066</v>
       </c>
     </row>
     <row r="29">
@@ -6945,19 +6945,19 @@
         <v>2860002</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2816433</v>
+        <v>2818258</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>2896726</v>
+        <v>2899231</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.8425773143832471</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.8297414032569056</v>
+        <v>0.8302789933564817</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.853396504341534</v>
+        <v>0.8541344544520417</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>2812</v>
@@ -6966,19 +6966,19 @@
         <v>2931662</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>2884753</v>
+        <v>2880227</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>2980534</v>
+        <v>2976092</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.8270918551628005</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.8138578085631495</v>
+        <v>0.8125807321735306</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.8408799018456012</v>
+        <v>0.8396266713302953</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>5507</v>
@@ -6987,19 +6987,19 @@
         <v>5791664</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>5730452</v>
+        <v>5726349</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>5858270</v>
+        <v>5856848</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.8346669941369886</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.8258453496509381</v>
+        <v>0.8252541075948934</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.8442659448336804</v>
+        <v>0.8440609450315855</v>
       </c>
     </row>
     <row r="30">
@@ -7335,19 +7335,19 @@
         <v>90308</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>73814</v>
+        <v>74613</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>106414</v>
+        <v>105769</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2832337201835164</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2315045553319258</v>
+        <v>0.2340116049911251</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3337485823073249</v>
+        <v>0.3317250013034126</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>201</v>
@@ -7356,19 +7356,19 @@
         <v>105535</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>93191</v>
+        <v>93570</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>119637</v>
+        <v>119564</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3339063661910409</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2948498570158558</v>
+        <v>0.2960499121014732</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3785246204770297</v>
+        <v>0.3782946332543389</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>313</v>
@@ -7377,19 +7377,19 @@
         <v>195842</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>178220</v>
+        <v>174739</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>217433</v>
+        <v>216582</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3084589204395405</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2807036143244834</v>
+        <v>0.2752199712181937</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3424643607675131</v>
+        <v>0.3411252613490189</v>
       </c>
     </row>
     <row r="5">
@@ -7406,19 +7406,19 @@
         <v>228537</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>212431</v>
+        <v>213076</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>245031</v>
+        <v>244232</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.7167662798164837</v>
+        <v>0.7167662798164838</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6662514176926753</v>
+        <v>0.6682749986965875</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7684954446680744</v>
+        <v>0.7659883950088748</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>337</v>
@@ -7427,19 +7427,19 @@
         <v>210526</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>196424</v>
+        <v>196497</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>222870</v>
+        <v>222491</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.666093633808959</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6214753795229703</v>
+        <v>0.6217053667456611</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.705150142984144</v>
+        <v>0.7039500878985269</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>556</v>
@@ -7448,19 +7448,19 @@
         <v>439064</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>417473</v>
+        <v>418324</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>456686</v>
+        <v>460167</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6915410795604596</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6575356392324869</v>
+        <v>0.658874738650981</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7192963856755166</v>
+        <v>0.7247800287818061</v>
       </c>
     </row>
     <row r="6">
@@ -7552,19 +7552,19 @@
         <v>145392</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>122677</v>
+        <v>124708</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>168978</v>
+        <v>174142</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2739899942080449</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2311843897950409</v>
+        <v>0.2350114520489648</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3184371353919225</v>
+        <v>0.3281687846211627</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>245</v>
@@ -7573,19 +7573,19 @@
         <v>167372</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>150986</v>
+        <v>150136</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>187884</v>
+        <v>187572</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3062643292192193</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2762816044453863</v>
+        <v>0.2747263485302455</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3437988515205636</v>
+        <v>0.3432273815101101</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>376</v>
@@ -7594,19 +7594,19 @@
         <v>312764</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>283051</v>
+        <v>285174</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>343394</v>
+        <v>345054</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2903645782612665</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2627798472028629</v>
+        <v>0.264750494217699</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3188012277702589</v>
+        <v>0.3203420549896382</v>
       </c>
     </row>
     <row r="8">
@@ -7623,19 +7623,19 @@
         <v>385255</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>361669</v>
+        <v>356505</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>407970</v>
+        <v>405939</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.7260100057919551</v>
+        <v>0.7260100057919552</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6815628646080778</v>
+        <v>0.6718312153788374</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7688156102049596</v>
+        <v>0.7649885479510352</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>472</v>
@@ -7644,19 +7644,19 @@
         <v>379122</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>358610</v>
+        <v>358922</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>395508</v>
+        <v>396358</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6937356707807807</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6562011484794368</v>
+        <v>0.6567726184898898</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7237183955546139</v>
+        <v>0.7252736514697543</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>723</v>
@@ -7665,19 +7665,19 @@
         <v>764377</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>733747</v>
+        <v>732087</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>794090</v>
+        <v>791967</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7096354217387336</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6811987722297408</v>
+        <v>0.6796579450103618</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7372201527971372</v>
+        <v>0.7352495057823012</v>
       </c>
     </row>
     <row r="9">
@@ -7769,19 +7769,19 @@
         <v>85263</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>72564</v>
+        <v>72987</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>99334</v>
+        <v>99398</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2698241005295015</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.229638438626272</v>
+        <v>0.2309757466587285</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3143559563276915</v>
+        <v>0.3145583204422306</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>193</v>
@@ -7790,19 +7790,19 @@
         <v>111383</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>99293</v>
+        <v>97701</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>126407</v>
+        <v>126190</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.312538088798998</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.278613978497797</v>
+        <v>0.2741481348823549</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3546951089304074</v>
+        <v>0.3540872748543651</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>323</v>
@@ -7811,19 +7811,19 @@
         <v>196645</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>177564</v>
+        <v>177009</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>218137</v>
+        <v>215795</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2924639571959619</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2640853113976591</v>
+        <v>0.2632597641289501</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.32442832593218</v>
+        <v>0.3209446735417397</v>
       </c>
     </row>
     <row r="11">
@@ -7840,19 +7840,19 @@
         <v>230730</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>216659</v>
+        <v>216595</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>243429</v>
+        <v>243006</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7301758994704985</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6856440436723084</v>
+        <v>0.6854416795577694</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7703615613737276</v>
+        <v>0.7690242533412717</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>343</v>
@@ -7861,19 +7861,19 @@
         <v>244998</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>229974</v>
+        <v>230191</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>257088</v>
+        <v>258680</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.687461911201002</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6453048910695922</v>
+        <v>0.6459127251456348</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.721386021502203</v>
+        <v>0.725851865117645</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>573</v>
@@ -7882,19 +7882,19 @@
         <v>475730</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>454238</v>
+        <v>456580</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>494811</v>
+        <v>495366</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.7075360428040383</v>
+        <v>0.707536042804038</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6755716740678199</v>
+        <v>0.6790553264582605</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.735914688602341</v>
+        <v>0.7367402358710501</v>
       </c>
     </row>
     <row r="12">
@@ -7986,19 +7986,19 @@
         <v>109110</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>90164</v>
+        <v>89848</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>128680</v>
+        <v>128963</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2924070436685299</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2416337063132364</v>
+        <v>0.2407864934464942</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3448529086387138</v>
+        <v>0.3456121388187397</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>274</v>
@@ -8007,19 +8007,19 @@
         <v>147890</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>129657</v>
+        <v>130796</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>164384</v>
+        <v>165470</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.350481510660596</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3072728039512587</v>
+        <v>0.3099712726409378</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3895710101418045</v>
+        <v>0.3921443332680062</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>406</v>
@@ -8028,19 +8028,19 @@
         <v>257000</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>230455</v>
+        <v>230515</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>284577</v>
+        <v>286920</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3232270403714621</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2898417104870558</v>
+        <v>0.2899172660202714</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3579107102936824</v>
+        <v>0.3608576921840888</v>
       </c>
     </row>
     <row r="14">
@@ -8057,19 +8057,19 @@
         <v>264035</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>244465</v>
+        <v>244182</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>282981</v>
+        <v>283297</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7075929563314702</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.655147091361286</v>
+        <v>0.6543878611812598</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7583662936867636</v>
+        <v>0.7592135065535057</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>325</v>
@@ -8078,19 +8078,19 @@
         <v>274071</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>257577</v>
+        <v>256491</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>292304</v>
+        <v>291165</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.649518489339404</v>
+        <v>0.6495184893394043</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6104289898581958</v>
+        <v>0.6078556667319936</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6927271960487417</v>
+        <v>0.6900287273590623</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>485</v>
@@ -8099,19 +8099,19 @@
         <v>538107</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>510530</v>
+        <v>508187</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>564652</v>
+        <v>564592</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.6767729596285379</v>
+        <v>0.6767729596285377</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6420892897063176</v>
+        <v>0.6391423078159121</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7101582895129442</v>
+        <v>0.7100827339797285</v>
       </c>
     </row>
     <row r="15">
@@ -8203,19 +8203,19 @@
         <v>59740</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>49364</v>
+        <v>50105</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>70141</v>
+        <v>71627</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2904736610011234</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2400205033119548</v>
+        <v>0.243622990767466</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3410464409147638</v>
+        <v>0.3482687508868061</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>219</v>
@@ -8224,19 +8224,19 @@
         <v>85664</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>75673</v>
+        <v>74834</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>95744</v>
+        <v>95191</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3776670526722392</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3336212234290267</v>
+        <v>0.3299238900914918</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.422108925369359</v>
+        <v>0.4196715830624504</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>319</v>
@@ -8245,19 +8245,19 @@
         <v>145404</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>131314</v>
+        <v>130803</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>160922</v>
+        <v>161824</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.3362032370618405</v>
+        <v>0.3362032370618406</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3036241581236255</v>
+        <v>0.302443264105632</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3720845546072797</v>
+        <v>0.3741689322272318</v>
       </c>
     </row>
     <row r="17">
@@ -8274,19 +8274,19 @@
         <v>145925</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>135524</v>
+        <v>134038</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>156301</v>
+        <v>155560</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7095263389988765</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6589535590852362</v>
+        <v>0.6517312491131938</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7599794966880452</v>
+        <v>0.756377009232534</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>272</v>
@@ -8295,19 +8295,19 @@
         <v>141159</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>131079</v>
+        <v>131632</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>151150</v>
+        <v>151989</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.6223329473277608</v>
+        <v>0.6223329473277607</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.5778910746306414</v>
+        <v>0.5803284169375497</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6663787765709736</v>
+        <v>0.6700761099085083</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>451</v>
@@ -8316,19 +8316,19 @@
         <v>287084</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>271566</v>
+        <v>270664</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>301174</v>
+        <v>301685</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6637967629381594</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.62791544539272</v>
+        <v>0.6258310677727686</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6963758418763744</v>
+        <v>0.6975567358943682</v>
       </c>
     </row>
     <row r="18">
@@ -8420,19 +8420,19 @@
         <v>71241</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>60930</v>
+        <v>60750</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>83957</v>
+        <v>84314</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2631679815432642</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2250764612907073</v>
+        <v>0.2244119717467243</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3101387486087761</v>
+        <v>0.3114581164131106</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>220</v>
@@ -8441,19 +8441,19 @@
         <v>97781</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>85834</v>
+        <v>87228</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>109595</v>
+        <v>110047</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.3707333441238312</v>
+        <v>0.3707333441238311</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.3254380188560057</v>
+        <v>0.3307231525030023</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.4155247104958433</v>
+        <v>0.417239168790589</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>362</v>
@@ -8462,19 +8462,19 @@
         <v>169022</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>153217</v>
+        <v>152536</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>187188</v>
+        <v>185582</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3162506081816505</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2866786387445897</v>
+        <v>0.2854035086107485</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3502390862441432</v>
+        <v>0.3472344313487079</v>
       </c>
     </row>
     <row r="20">
@@ -8491,19 +8491,19 @@
         <v>199466</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>186750</v>
+        <v>186393</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>209777</v>
+        <v>209957</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7368320184567358</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6898612513912238</v>
+        <v>0.6885418835868894</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7749235387092926</v>
+        <v>0.7755880282532757</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>240</v>
@@ -8512,19 +8512,19 @@
         <v>165969</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>154155</v>
+        <v>153703</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>177916</v>
+        <v>176522</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.6292666558761689</v>
+        <v>0.6292666558761685</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.5844752895041568</v>
+        <v>0.5827608312094112</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.6745619811439947</v>
+        <v>0.6692768474969982</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>469</v>
@@ -8533,19 +8533,19 @@
         <v>365435</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>347269</v>
+        <v>348875</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>381240</v>
+        <v>381921</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.6837493918183496</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.6497609137558569</v>
+        <v>0.652765568651292</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7133213612554105</v>
+        <v>0.7145964913892515</v>
       </c>
     </row>
     <row r="21">
@@ -8637,19 +8637,19 @@
         <v>235613</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>209988</v>
+        <v>209928</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>263264</v>
+        <v>264267</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3273825343786283</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2917771947663141</v>
+        <v>0.2916941024632739</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.36580303436509</v>
+        <v>0.3671974758389295</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>372</v>
@@ -8658,19 +8658,19 @@
         <v>281112</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>256276</v>
+        <v>258106</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>306151</v>
+        <v>308664</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.3641078314383455</v>
+        <v>0.3641078314383454</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3319388623587977</v>
+        <v>0.3343097074905599</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3965387906622556</v>
+        <v>0.3997948522661572</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>609</v>
@@ -8679,19 +8679,19 @@
         <v>516725</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>480353</v>
+        <v>476220</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>554460</v>
+        <v>554512</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.3463898290111069</v>
+        <v>0.346389829011107</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3220075142529619</v>
+        <v>0.3192368547160263</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3716857400391188</v>
+        <v>0.3717209383036388</v>
       </c>
     </row>
     <row r="23">
@@ -8708,19 +8708,19 @@
         <v>484074</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>456423</v>
+        <v>455420</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>509699</v>
+        <v>509759</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.6726174656213718</v>
+        <v>0.6726174656213719</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.6341969656349101</v>
+        <v>0.6328025241610705</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.7082228052336861</v>
+        <v>0.7083058975367261</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>588</v>
@@ -8729,19 +8729,19 @@
         <v>490945</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>465906</v>
+        <v>463393</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>515781</v>
+        <v>513951</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.6358921685616544</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.6034612093377445</v>
+        <v>0.6002051477338429</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.6680611376412023</v>
+        <v>0.6656902925094402</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>950</v>
@@ -8750,19 +8750,19 @@
         <v>975019</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>937284</v>
+        <v>937232</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1011391</v>
+        <v>1015524</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.653610170988893</v>
+        <v>0.6536101709888931</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.6283142599608813</v>
+        <v>0.6282790616963613</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.677992485747038</v>
+        <v>0.6807631452839735</v>
       </c>
     </row>
     <row r="24">
@@ -8854,19 +8854,19 @@
         <v>295768</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>269842</v>
+        <v>268436</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>323479</v>
+        <v>323496</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.3706031276102028</v>
+        <v>0.3706031276102029</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.3381176573276111</v>
+        <v>0.3363561520498782</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.4053261704067413</v>
+        <v>0.4053464046094737</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>514</v>
@@ -8875,19 +8875,19 @@
         <v>347317</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>323102</v>
+        <v>321308</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>370761</v>
+        <v>371062</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.4181478930567127</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.3889935351510931</v>
+        <v>0.3868344747947204</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.446372417443596</v>
+        <v>0.4467346579121711</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>858</v>
@@ -8896,19 +8896,19 @@
         <v>643085</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>607250</v>
+        <v>603308</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>682200</v>
+        <v>678664</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3948504210595076</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.3728479918128351</v>
+        <v>0.3704272068399275</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.4188662686076466</v>
+        <v>0.4166953993167701</v>
       </c>
     </row>
     <row r="26">
@@ -8925,19 +8925,19 @@
         <v>502304</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>474593</v>
+        <v>474576</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>528230</v>
+        <v>529636</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.6293968723897971</v>
+        <v>0.629396872389797</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.5946738295932584</v>
+        <v>0.594653595390526</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.6618823426723889</v>
+        <v>0.6636438479501214</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>547</v>
@@ -8946,19 +8946,19 @@
         <v>483292</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>459848</v>
+        <v>459547</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>507507</v>
+        <v>509301</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.5818521069432872</v>
+        <v>0.5818521069432874</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.5536275825564041</v>
+        <v>0.5532653420878287</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.6110064648489069</v>
+        <v>0.6131655252052793</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>965</v>
@@ -8967,19 +8967,19 @@
         <v>985596</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>946481</v>
+        <v>950017</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1021431</v>
+        <v>1025373</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.6051495789404923</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.5811337313923535</v>
+        <v>0.58330460068323</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.627152008187165</v>
+        <v>0.6295727931600732</v>
       </c>
     </row>
     <row r="27">
@@ -9071,19 +9071,19 @@
         <v>1092435</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1037290</v>
+        <v>1034007</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>1153456</v>
+        <v>1144253</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.3092297937081</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.2936202356636157</v>
+        <v>0.2926907407507263</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.326502744985211</v>
+        <v>0.3238975471330842</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>2238</v>
@@ -9092,19 +9092,19 @@
         <v>1344053</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1290358</v>
+        <v>1294991</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>1391165</v>
+        <v>1399371</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.3599366550332037</v>
+        <v>0.3599366550332035</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.3455571848324721</v>
+        <v>0.3467979395838051</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.3725533656038037</v>
+        <v>0.3747508455926532</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>3566</v>
@@ -9113,19 +9113,19 @@
         <v>2436488</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>2365339</v>
+        <v>2363540</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>2520066</v>
+        <v>2508577</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.3352858010418433</v>
+        <v>0.3352858010418432</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.3254949496318338</v>
+        <v>0.325247387605506</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.346787023965676</v>
+        <v>0.3452059779363593</v>
       </c>
     </row>
     <row r="29">
@@ -9142,19 +9142,19 @@
         <v>2440327</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2379306</v>
+        <v>2388509</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>2495472</v>
+        <v>2498755</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.6907702062919001</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.6734972550147882</v>
+        <v>0.6761024528669159</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.7063797643363841</v>
+        <v>0.707309259249274</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>3124</v>
@@ -9163,19 +9163,19 @@
         <v>2390084</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>2342972</v>
+        <v>2334766</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>2443779</v>
+        <v>2439146</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.6400633449667964</v>
+        <v>0.6400633449667963</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.6274466343961962</v>
+        <v>0.6252491544073472</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.6544428151675279</v>
+        <v>0.6532020604161956</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>5172</v>
@@ -9184,19 +9184,19 @@
         <v>4830411</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>4746833</v>
+        <v>4758322</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>4901560</v>
+        <v>4903359</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.6647141989581569</v>
+        <v>0.6647141989581568</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.6532129760343239</v>
+        <v>0.6547940220636406</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.6745050503681661</v>
+        <v>0.6747526123944942</v>
       </c>
     </row>
     <row r="30">
